--- a/RQ2_results/RQ2-2_evm_compare_results/detail_results.xlsx
+++ b/RQ2_results/RQ2-2_evm_compare_results/detail_results.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+  <si>
+    <t>漏洞</t>
+  </si>
   <si>
     <t>TP</t>
   </si>
@@ -124,12 +127,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,11 +151,64 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,52 +217,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,82 +306,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,11 +572,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,17 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,24 +644,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,10 +827,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1200,7 +1211,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1213,41 +1224,43 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:11">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5">
         <v>691</v>
@@ -1271,16 +1284,16 @@
         <v>2100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:11">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>700</v>
@@ -1304,16 +1317,16 @@
         <v>2100</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:11">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5">
         <v>685</v>
@@ -1337,16 +1350,16 @@
         <v>2100</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>50</v>
@@ -1370,16 +1383,16 @@
         <v>150</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:11">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>35</v>
@@ -1403,16 +1416,16 @@
         <v>105</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>8</v>
@@ -1436,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>594</v>
@@ -1469,18 +1482,18 @@
         <v>2100</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>683</v>
@@ -1504,14 +1517,14 @@
         <v>2100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="8"/>
     </row>
     <row r="10" ht="15" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>490</v>
@@ -1540,7 +1553,7 @@
     <row r="11" ht="15" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>512</v>
@@ -1569,7 +1582,7 @@
     <row r="12" ht="15" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
         <v>32</v>
@@ -1597,10 +1610,10 @@
     </row>
     <row r="13" ht="15" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
         <v>408</v>
@@ -1624,14 +1637,14 @@
         <v>2100</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" ht="15.75" spans="1:11">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6">
         <v>410</v>
